--- a/data/evaluation/evaluation_North_Autumn_Avocados.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Avocados.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1793.241144591032</v>
+        <v>1798.692706557433</v>
       </c>
       <c r="C4" t="n">
-        <v>5119399.475789992</v>
+        <v>5111554.00490113</v>
       </c>
       <c r="D4" t="n">
-        <v>2262.608997549067</v>
+        <v>2260.874610610047</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05597039817432781</v>
+        <v>-0.0543521253558934</v>
       </c>
     </row>
     <row r="5">
